--- a/AggrFiles/Marmoset.xlsx
+++ b/AggrFiles/Marmoset.xlsx
@@ -460,7 +460,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" activeCellId="1" sqref="9:9 C6"/>
+      <selection pane="bottomRight" activeCell="C6" activeCellId="1" sqref="4:4 C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22459,7 +22459,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" activeCellId="0" sqref="9:9"/>
+      <selection pane="bottomRight" activeCell="C4" activeCellId="0" sqref="4:4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22467,7 +22467,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="36.12"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="15.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="15.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="11.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="5.11"/>
